--- a/localidadesmym.xlsx
+++ b/localidadesmym.xlsx
@@ -15,7 +15,7 @@
     <sheet name="LOCALIDAD X ZONA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LOCALIDAD X ZONA'!$A$1:$D$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LOCALIDAD X ZONA'!$A$1:$D$96</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="134">
   <si>
     <t>DEPARTAMENTO</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>NORTE MEDIO</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
   </si>
 </sst>
 </file>
@@ -801,10 +804,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2377,6 +2380,20 @@
         <v>132</v>
       </c>
     </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/localidadesmym.xlsx
+++ b/localidadesmym.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBarrios\Desktop\SQLDATAEXTRACTOR\rselenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBarrios\Desktop\rselenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="135">
   <si>
     <t>DEPARTAMENTO</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>MEJIA</t>
+  </si>
+  <si>
+    <t>SAN BORJA</t>
   </si>
 </sst>
 </file>
@@ -804,10 +807,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2394,6 +2397,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
